--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2504351.117301219</v>
+        <v>2619967.506318124</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3828147651809</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>116.6367944712317</v>
+        <v>12.83532033605545</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651809</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651809</v>
+        <v>224.5107723990733</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500679</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36.34730453542325</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.190584626427</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>8.25460857129791</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482565</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>205.4073666323191</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>184.374588001538</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I5" t="n">
-        <v>59.8012719186828</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.67576101812766</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>44.83981067953869</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.856370263417452</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015061</v>
+        <v>228.2871890163786</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.4086626864001</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>161.9726758866856</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>261.1185258824891</v>
       </c>
       <c r="V10" t="n">
-        <v>83.4158967498558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.7400764119402</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="U16" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>18.70843787977262</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>105.9742079424025</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>105.11626575513</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>34.56584948763783</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>40.6225301034174</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>108.2950343703266</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>148.8796904206634</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>4.444394634329537</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>137.9640996397618</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>81.1358311159984</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>239.3074490814222</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3797,13 +3799,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>91.32784210538742</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>101.393069766706</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.3135037226517</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.4447645856105</v>
+        <v>307.0243432043929</v>
       </c>
       <c r="C2" t="n">
-        <v>521.4447645856105</v>
+        <v>307.0243432043929</v>
       </c>
       <c r="D2" t="n">
-        <v>521.4447645856105</v>
+        <v>307.0243432043929</v>
       </c>
       <c r="E2" t="n">
-        <v>521.4447645856105</v>
+        <v>307.0243432043929</v>
       </c>
       <c r="F2" t="n">
-        <v>255.4015173480541</v>
+        <v>300.0788424551895</v>
       </c>
       <c r="G2" t="n">
-        <v>137.586573437719</v>
+        <v>287.1138724187699</v>
       </c>
       <c r="H2" t="n">
-        <v>137.586573437719</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467368</v>
+        <v>49.15993901467323</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935565</v>
+        <v>141.9970572935558</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959978</v>
+        <v>294.0714735959963</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795987</v>
+        <v>494.9530007795967</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467034</v>
+        <v>703.6988094670314</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288965</v>
+        <v>887.4762960288931</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108069</v>
+        <v>1009.825128108066</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="U2" t="n">
-        <v>1053.531259060723</v>
+        <v>799.8461484208103</v>
       </c>
       <c r="V2" t="n">
-        <v>787.488011823167</v>
+        <v>799.8461484208103</v>
       </c>
       <c r="W2" t="n">
-        <v>787.488011823167</v>
+        <v>799.8461484208103</v>
       </c>
       <c r="X2" t="n">
-        <v>787.488011823167</v>
+        <v>799.8461484208103</v>
       </c>
       <c r="Y2" t="n">
-        <v>521.4447645856105</v>
+        <v>573.0675904419484</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>564.7300857656508</v>
+        <v>195.1823798481068</v>
       </c>
       <c r="C3" t="n">
-        <v>564.7300857656508</v>
+        <v>195.1823798481068</v>
       </c>
       <c r="D3" t="n">
-        <v>564.7300857656508</v>
+        <v>195.1823798481068</v>
       </c>
       <c r="E3" t="n">
-        <v>405.4926307601952</v>
+        <v>195.1823798481068</v>
       </c>
       <c r="F3" t="n">
-        <v>258.9580727870802</v>
+        <v>195.1823798481068</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5607671458678</v>
+        <v>57.78507420689445</v>
       </c>
       <c r="H3" t="n">
-        <v>21.07062518121447</v>
+        <v>57.78507420689445</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371063</v>
+        <v>95.65665001371029</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433175</v>
+        <v>242.2693060433168</v>
       </c>
       <c r="M3" t="n">
-        <v>432.716228529904</v>
+        <v>503.0182926608449</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779534</v>
+        <v>712.914423408894</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171760997</v>
+        <v>882.7085813070398</v>
       </c>
       <c r="P3" t="n">
-        <v>929.348231963468</v>
+        <v>999.6502960944078</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155242</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155242</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155242</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155242</v>
+        <v>825.3953723613305</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.818942699385</v>
+        <v>825.3953723613305</v>
       </c>
       <c r="W3" t="n">
-        <v>772.5815859711836</v>
+        <v>571.1580156331288</v>
       </c>
       <c r="X3" t="n">
-        <v>564.7300857656508</v>
+        <v>571.1580156331288</v>
       </c>
       <c r="Y3" t="n">
-        <v>564.7300857656508</v>
+        <v>363.3977168681749</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.244863256796</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="C4" t="n">
-        <v>184.244863256796</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="D4" t="n">
-        <v>184.244863256796</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="E4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="F4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="G4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="H4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440286</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121447</v>
+        <v>21.07062518121439</v>
       </c>
       <c r="K4" t="n">
-        <v>126.32778054812</v>
+        <v>126.3277805481197</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504853</v>
+        <v>316.5471352504848</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570825</v>
+        <v>527.4958971570818</v>
       </c>
       <c r="N4" t="n">
-        <v>738.86338542106</v>
+        <v>738.8633854210591</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376796</v>
+        <v>918.0791761376786</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351422</v>
+        <v>1047.908563351421</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060723</v>
+        <v>1053.53125906072</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060723</v>
+        <v>846.7351778287808</v>
       </c>
       <c r="T4" t="n">
-        <v>828.0600048104166</v>
+        <v>621.2639235784741</v>
       </c>
       <c r="U4" t="n">
-        <v>828.0600048104166</v>
+        <v>621.2639235784741</v>
       </c>
       <c r="V4" t="n">
-        <v>573.3755166045297</v>
+        <v>621.2639235784741</v>
       </c>
       <c r="W4" t="n">
-        <v>365.8933280870357</v>
+        <v>355.2206763409186</v>
       </c>
       <c r="X4" t="n">
-        <v>365.8933280870357</v>
+        <v>168.9837187636075</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.8933280870357</v>
+        <v>168.9837187636075</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>634.167062227511</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="C5" t="n">
-        <v>634.167062227511</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4117490931551</v>
+        <v>560.7979242836801</v>
       </c>
       <c r="F5" t="n">
-        <v>94.46624834395162</v>
+        <v>553.8524235344767</v>
       </c>
       <c r="G5" t="n">
-        <v>81.50243557050716</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H5" t="n">
-        <v>81.50243557050716</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>900.5447187946889</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="W5" t="n">
-        <v>900.5447187946889</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="X5" t="n">
-        <v>900.5447187946889</v>
+        <v>827.1755808508582</v>
       </c>
       <c r="Y5" t="n">
-        <v>634.167062227511</v>
+        <v>827.1755808508582</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787.653248772002</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="C6" t="n">
-        <v>613.200219490875</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="D6" t="n">
-        <v>464.2658098296238</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E6" t="n">
         <v>305.0283548241683</v>
@@ -4635,61 +4637,61 @@
         <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442528</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>794.4178197841127</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>559.26571155237</v>
       </c>
       <c r="W6" t="n">
-        <v>826.7196740428381</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="X6" t="n">
-        <v>826.7196740428381</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="Y6" t="n">
-        <v>826.7196740428381</v>
+        <v>305.0283548241683</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.5564185430274</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="C7" t="n">
-        <v>336.5564185430274</v>
+        <v>171.2137498124562</v>
       </c>
       <c r="D7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>336.5564185430274</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1050.960196507623</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1050.960196507623</v>
+        <v>848.0684854165363</v>
       </c>
       <c r="T7" t="n">
-        <v>1050.960196507623</v>
+        <v>622.5994491745506</v>
       </c>
       <c r="U7" t="n">
-        <v>784.582539940445</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="V7" t="n">
-        <v>784.582539940445</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="W7" t="n">
-        <v>518.2048833732671</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="X7" t="n">
-        <v>518.2048833732671</v>
+        <v>392.0063289559863</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.2048833732671</v>
+        <v>171.2137498124562</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.991392838317</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4832,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2398.73056487825</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2398.73056487825</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2398.73056487825</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2398.73056487825</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>2398.73056487825</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>2008.591232902438</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.7982798220355</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429094</v>
+        <v>1270.106626840091</v>
       </c>
       <c r="V10" t="n">
-        <v>1132.580409863583</v>
+        <v>1015.422138634204</v>
       </c>
       <c r="W10" t="n">
-        <v>1132.580409863583</v>
+        <v>726.0049685972431</v>
       </c>
       <c r="X10" t="n">
-        <v>904.5908589655656</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="Y10" t="n">
-        <v>683.7982798220355</v>
+        <v>498.0154176992257</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>248.3972582582387</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>106.6854271004367</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5242,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2012.787110747773</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
@@ -5838,13 +5840,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1057.955258982919</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="C22" t="n">
-        <v>889.0190760550122</v>
+        <v>2978.516248701936</v>
       </c>
       <c r="D22" t="n">
-        <v>738.9024366426764</v>
+        <v>2828.3996092896</v>
       </c>
       <c r="E22" t="n">
-        <v>590.9893430602833</v>
+        <v>2828.3996092896</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2681.50966179169</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2514.31356250657</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2372.601731348768</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.385853854706</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.396302956689</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>1239.603723813159</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,7 +5980,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,19 +6068,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>4180.29829063852</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3890.88112060156</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3662.891569703542</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,43 +6232,43 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2192.573257978144</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1903.498031322342</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="35">
@@ -6932,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811715</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3113.844599961805</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>3113.844599961805</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>2963.727960549469</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>2815.814866967076</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>2668.924919469166</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>2501.728820184046</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4288.376853076439</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4033.692364870552</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.275194833592</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.285643935575</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.493064792045</v>
+        <v>1238.024836667326</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,16 +7256,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>3093.254426444652</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>2924.318243516745</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>2774.20160410441</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>2626.288510522017</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3502.89244217291</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3274.902891274892</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3274.902891274892</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7405,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7430,25 +7432,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7482,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
         <v>776.1751066403293</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306003</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378096</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>2505.71655096576</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>2357.803457383367</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>2357.803457383367</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1885.210734949511</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1630.526246743624</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1341.109076706663</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>3639.612039348918</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>779.6143379232838</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C46" t="n">
-        <v>779.6143379232838</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2344.545841391669</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2124.944376414609</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y46" t="n">
-        <v>779.6143379232838</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877291</v>
+        <v>60.5916434387731</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079437</v>
+        <v>2.109135423079593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.01218599085058</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.8987718169236</v>
+        <v>25.88658582607163</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8155,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719814</v>
+        <v>64.50521872719551</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127268</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241561</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>34.97276993489194</v>
       </c>
       <c r="U16" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>112.6104454096923</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>46.6999868309277</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>245.5619442858267</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.52575990662487</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>212.9610556929587</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>41.8678805421755</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>59.15888173022549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>47.21554925516881</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303769</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>194.8566322838567</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>79.63321623493862</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.27114962944304</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>802868.2789583378</v>
+        <v>802868.278958338</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.20504074</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520052</v>
       </c>
-      <c r="N2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909298</v>
+        <v>679702.4124909288</v>
       </c>
       <c r="C3" t="n">
-        <v>366.470368093629</v>
+        <v>366.4703680948033</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245458</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8.129336565339465e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.533186421</v>
+        <v>68912.53318642096</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774251019</v>
+        <v>85.20559774284445</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756977</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.547767403</v>
+        <v>253116.5477674033</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26424,25 +26426,25 @@
         <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181816</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557692</v>
+        <v>63021.46164557684</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339007.0060124829</v>
+        <v>-339007.0060124825</v>
       </c>
       <c r="C6" t="n">
-        <v>340402.3774117319</v>
+        <v>340402.3774117304</v>
       </c>
       <c r="D6" t="n">
-        <v>30020.32237793942</v>
+        <v>30020.32237793939</v>
       </c>
       <c r="E6" t="n">
-        <v>24722.3881217336</v>
+        <v>24722.38812173398</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462794</v>
+        <v>532207.8297462796</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462795</v>
+        <v>532207.8297462799</v>
       </c>
       <c r="H6" t="n">
         <v>532207.8297462796</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.8297462796</v>
+        <v>532207.8297462795</v>
       </c>
       <c r="J6" t="n">
-        <v>463295.2965598587</v>
+        <v>463295.296559859</v>
       </c>
       <c r="K6" t="n">
         <v>532122.6241485372</v>
       </c>
       <c r="L6" t="n">
-        <v>436825.1836087099</v>
+        <v>436825.1836087104</v>
       </c>
       <c r="M6" t="n">
-        <v>399600.5360173534</v>
+        <v>399600.5360173535</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462797</v>
+        <v>532207.8297462801</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462797</v>
+        <v>532207.8297462799</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.82974628</v>
+        <v>532207.8297462796</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960508</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960516</v>
+        <v>613.7700232960508</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734266602</v>
+        <v>0.2849904734275697</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363252957</v>
+        <v>0.3310652363263671</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.965991048521249e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651801</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363250683</v>
+        <v>0.3310652363263671</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651809</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363252957</v>
+        <v>0.3310652363263671</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.965991048521249e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268983007</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.4932309765306</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>296.1985258648238</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>50.82255116533833</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739396</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179688</v>
+        <v>152.7938006179689</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482595335101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495405</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908727</v>
+        <v>161.7271662569803</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27466,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.4852405450068</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280754</v>
+        <v>7.595604892652212</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642711</v>
       </c>
       <c r="S3" t="n">
         <v>147.161321588189</v>
@@ -27512,19 +27514,19 @@
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>224.5459785781273</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27557,10 @@
         <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180232</v>
+        <v>122.1660284180233</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.1085330482566</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>127.5277104718864</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27596,13 @@
         <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>81.11563170427192</v>
+        <v>23.14018357141111</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>41.33506738749918</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442037</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I5" t="n">
-        <v>55.50534762821431</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27673,7 +27675,7 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>102.3491187065198</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.8574226317397</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>181.0146768240159</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27795,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>123.6482326202465</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117135</v>
+        <v>57.97144148629883</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.3251789770805</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>44.68550909354821</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>25.10862823871156</v>
       </c>
       <c r="V10" t="n">
-        <v>168.7217465739722</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079602</v>
+        <v>2.467417179079599</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524898</v>
+        <v>25.26943618524895</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646647</v>
+        <v>95.12510079646634</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029076</v>
+        <v>209.4189488029073</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933473</v>
+        <v>313.8647179933469</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876047</v>
+        <v>389.3769364876042</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460616</v>
+        <v>433.256866746061</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061215</v>
+        <v>440.2674158061209</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316487</v>
+        <v>415.7320362316482</v>
       </c>
       <c r="P2" t="n">
-        <v>354.817674623121</v>
+        <v>354.8176746231205</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973326</v>
+        <v>266.4532968973323</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753592</v>
+        <v>154.993894375359</v>
       </c>
       <c r="S2" t="n">
-        <v>56.2262689682765</v>
+        <v>56.22626896827643</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142096</v>
+        <v>10.80111870142095</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263682</v>
+        <v>0.1973933743263679</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410375</v>
+        <v>1.320184578410373</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148968</v>
+        <v>12.75020369148966</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333967</v>
+        <v>45.45372342333962</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435873</v>
+        <v>124.7284912435871</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970824</v>
+        <v>213.1808579970821</v>
       </c>
       <c r="L3" t="n">
-        <v>286.647971728972</v>
+        <v>286.6479717289717</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963481</v>
+        <v>334.5046626963476</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682317</v>
+        <v>343.3580057682313</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466124</v>
+        <v>314.105494846612</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439953</v>
+        <v>252.0973516439949</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774367</v>
+        <v>168.5204033774365</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621614</v>
+        <v>81.96724952621602</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564884</v>
+        <v>24.52184951564881</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311993</v>
+        <v>5.321270296311986</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962998</v>
+        <v>0.08685424857962987</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665011</v>
+        <v>1.10679840266501</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058014</v>
+        <v>9.840443980058001</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923507</v>
+        <v>33.28444650923502</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841627</v>
+        <v>78.25064706841617</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823531</v>
+        <v>128.5898507823529</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653054</v>
+        <v>164.5507370653052</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195707</v>
+        <v>173.4956805195705</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187286</v>
+        <v>169.3703410187283</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148691</v>
+        <v>156.4409233148689</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005027</v>
+        <v>133.8622359005026</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770379</v>
+        <v>92.67927351770366</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528312</v>
+        <v>49.76568090528305</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735296</v>
+        <v>19.28847761735293</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477773</v>
+        <v>4.729047720477767</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354612</v>
+        <v>0.06037082196354604</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31312,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31361,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31379,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31458,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,13 +32086,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32312,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32558,7 +32560,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,22 +32788,22 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>579.5299594447137</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>726.7533607666132</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832324</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>211.5147800288493</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250657</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,19 +33976,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L42" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>724.9681211658376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622132</v>
+        <v>28.37304427622104</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836671</v>
+        <v>93.77486694836631</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176175</v>
+        <v>153.610521517617</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187888</v>
+        <v>202.9106335187883</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095306</v>
+        <v>210.85435220953</v>
       </c>
       <c r="O2" t="n">
-        <v>185.633824809962</v>
+        <v>185.6338248099615</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678514</v>
+        <v>123.584678867851</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288314</v>
+        <v>44.1476070228828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.3394190227234</v>
+        <v>75.33941902272312</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490979</v>
+        <v>148.0935919490975</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743298</v>
+        <v>263.3828147651799</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848984</v>
+        <v>212.016293684898</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021679</v>
+        <v>171.5092504021675</v>
       </c>
       <c r="P3" t="n">
-        <v>118.122944229665</v>
+        <v>118.1229442296647</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083388</v>
+        <v>54.42521511748657</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564702</v>
+        <v>106.32035895647</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256215</v>
+        <v>192.1407623256213</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814113</v>
+        <v>213.0795574814111</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979572</v>
+        <v>213.5025133979569</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289087</v>
+        <v>181.0260512289085</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653962</v>
+        <v>131.140795165396</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.679490615456086</v>
+        <v>5.67949061545333</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35033,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877691</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>546.4575832202792</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445949</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998991</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>77.5403726145191</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L42" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>582.8340872438192</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2619967.506318124</v>
+        <v>2615663.189269881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9059616.880933354</v>
+        <v>9059616.880933352</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.3828147651831</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>226.6250435140662</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605545</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739391</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.5107723990733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>36.34730453542325</v>
+        <v>43.94290942807526</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.641226661287096</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196193</v>
+        <v>82.14744450081317</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651799</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>184.374588001538</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015063</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.2792495146818396</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>225.4031397636151</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>134.4156738645889</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>44.83981067953869</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>228.2871890163786</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>17.28688718947226</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.4086626864001</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>290.9466399855158</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>261.1185258824891</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>31.10811072719287</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>12.7400764119402</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>19.51567534720864</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>182.4326803923963</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>207.0967504439648</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.9742079424025</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>34.56584948763783</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>40.6225301034174</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>5.623597659135302</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>148.8796904206634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>4.444394634329537</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>137.9640996397618</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>112.7304175246775</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>239.3074490814222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>91.32784210538742</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>101.393069766706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612634</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0243432043929</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="C2" t="n">
-        <v>307.0243432043929</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="D2" t="n">
-        <v>307.0243432043929</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="E2" t="n">
-        <v>307.0243432043929</v>
+        <v>379.4657288418821</v>
       </c>
       <c r="F2" t="n">
-        <v>300.0788424551895</v>
+        <v>150.5515434741385</v>
       </c>
       <c r="G2" t="n">
-        <v>287.1138724187699</v>
+        <v>137.5865734377188</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121439</v>
+        <v>137.5865734377188</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467323</v>
+        <v>49.15993901467436</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935558</v>
+        <v>141.9970572935585</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959963</v>
+        <v>294.071473596001</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795967</v>
+        <v>494.953000779603</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670314</v>
+        <v>703.6988094670398</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288931</v>
+        <v>887.4762960289033</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108066</v>
+        <v>1009.825128108077</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060733</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060733</v>
       </c>
       <c r="S2" t="n">
-        <v>1053.53125906072</v>
+        <v>899.19408671935</v>
       </c>
       <c r="T2" t="n">
-        <v>1053.53125906072</v>
+        <v>899.19408671935</v>
       </c>
       <c r="U2" t="n">
-        <v>799.8461484208103</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="V2" t="n">
-        <v>799.8461484208103</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="W2" t="n">
-        <v>799.8461484208103</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="X2" t="n">
-        <v>799.8461484208103</v>
+        <v>645.5089760794408</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.0675904419484</v>
+        <v>645.5089760794408</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.1823798481068</v>
+        <v>239.9104316624177</v>
       </c>
       <c r="C3" t="n">
-        <v>195.1823798481068</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="D3" t="n">
-        <v>195.1823798481068</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="E3" t="n">
-        <v>195.1823798481068</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="F3" t="n">
-        <v>195.1823798481068</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="G3" t="n">
-        <v>57.78507420689445</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="H3" t="n">
-        <v>57.78507420689445</v>
+        <v>65.45740238129068</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121439</v>
+        <v>117.0004092799721</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371029</v>
+        <v>191.5864341124689</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433168</v>
+        <v>338.1990901420767</v>
       </c>
       <c r="M3" t="n">
-        <v>503.0182926608449</v>
+        <v>528.6460126286642</v>
       </c>
       <c r="N3" t="n">
-        <v>712.914423408894</v>
+        <v>738.5421433767146</v>
       </c>
       <c r="O3" t="n">
-        <v>882.7085813070398</v>
+        <v>908.3363012748619</v>
       </c>
       <c r="P3" t="n">
-        <v>999.6502960944078</v>
+        <v>1025.278016062231</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060733</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.53125906072</v>
+        <v>1051.873454352362</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.53125906072</v>
+        <v>1051.873454352362</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.53125906072</v>
+        <v>1051.873454352362</v>
       </c>
       <c r="U3" t="n">
-        <v>825.3953723613305</v>
+        <v>823.7375676529725</v>
       </c>
       <c r="V3" t="n">
-        <v>825.3953723613305</v>
+        <v>823.7375676529725</v>
       </c>
       <c r="W3" t="n">
-        <v>571.1580156331288</v>
+        <v>823.7375676529725</v>
       </c>
       <c r="X3" t="n">
-        <v>571.1580156331288</v>
+        <v>615.8860674474397</v>
       </c>
       <c r="Y3" t="n">
-        <v>363.3977168681749</v>
+        <v>408.1257686824857</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.9837187636075</v>
+        <v>340.1234475214573</v>
       </c>
       <c r="C4" t="n">
-        <v>168.9837187636075</v>
+        <v>171.1872645935504</v>
       </c>
       <c r="D4" t="n">
-        <v>168.9837187636075</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121439</v>
+        <v>21.07062518121465</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481197</v>
+        <v>125.4984182940786</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504848</v>
+        <v>315.7177729964444</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570818</v>
+        <v>526.6665349030421</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210591</v>
+        <v>738.0340231670202</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376786</v>
+        <v>917.2498138836404</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.908563351421</v>
+        <v>1047.079201097383</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060733</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906072</v>
+        <v>1053.531259060733</v>
       </c>
       <c r="S4" t="n">
-        <v>846.7351778287808</v>
+        <v>970.5540423932445</v>
       </c>
       <c r="T4" t="n">
-        <v>621.2639235784741</v>
+        <v>970.5540423932445</v>
       </c>
       <c r="U4" t="n">
-        <v>621.2639235784741</v>
+        <v>970.5540423932445</v>
       </c>
       <c r="V4" t="n">
-        <v>621.2639235784741</v>
+        <v>970.5540423932445</v>
       </c>
       <c r="W4" t="n">
-        <v>355.2206763409186</v>
+        <v>970.5540423932445</v>
       </c>
       <c r="X4" t="n">
-        <v>168.9837187636075</v>
+        <v>742.5644914952271</v>
       </c>
       <c r="Y4" t="n">
-        <v>168.9837187636075</v>
+        <v>521.771912351697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>827.1755808508582</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C5" t="n">
-        <v>827.1755808508582</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D5" t="n">
-        <v>827.1755808508582</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>560.7979242836801</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
-        <v>553.8524235344767</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672986</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.573449789174</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="V5" t="n">
-        <v>827.1755808508582</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508582</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>827.1755808508582</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y5" t="n">
-        <v>827.1755808508582</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>794.4178197841127</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V6" t="n">
-        <v>559.26571155237</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="W6" t="n">
-        <v>305.0283548241683</v>
+        <v>572.4823173146365</v>
       </c>
       <c r="X6" t="n">
-        <v>305.0283548241683</v>
+        <v>364.6308171091036</v>
       </c>
       <c r="Y6" t="n">
-        <v>305.0283548241683</v>
+        <v>156.8705183441497</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.2137498124562</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165363</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>622.5994491745506</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>392.0063289559863</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>392.0063289559863</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>392.0063289559863</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>392.0063289559863</v>
+        <v>1037.394017794436</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.2137498124562</v>
+        <v>816.6014386509063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.539306344596</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>1445.965582893149</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>1060.177330294905</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>649.1914255052973</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4810,7 +4810,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.810682795505</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.0154176992257</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>498.0154176992257</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1270.106626840091</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1015.422138634204</v>
+        <v>1605.023786006625</v>
       </c>
       <c r="W10" t="n">
-        <v>726.0049685972431</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X10" t="n">
-        <v>498.0154176992257</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.0154176992257</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5047,16 +5047,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433587</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>415.5933575433587</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>415.5933575433587</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>248.3972582582387</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>106.6854271004367</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.787110747773</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1723.711884091971</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5524,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978.516248701936</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2978.516248701936</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2828.3996092896</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2828.3996092896</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2681.50966179169</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2514.31356250657</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2372.601731348768</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3260.450525729772</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>3091.514342801865</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.39770338953</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4180.29829063852</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>4180.29829063852</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>3890.88112060156</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>3662.891569703542</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>3442.098990560012</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2046.67901981013</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1757.603793154328</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.919304948441</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1213.50213491148</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>985.5125840134625</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>429.5088224239597</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1654.485273605118</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2192.573257978144</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1903.498031322342</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.813543116455</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1359.396373079494</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811715</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y37" t="n">
-        <v>1238.024836667326</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3093.254426444652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2924.318243516745</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2774.20160410441</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3502.89244217291</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3274.902891274892</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3274.902891274892</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7432,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1885.210734949511</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1630.526246743624</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1341.109076706663</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1113.119525808646</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7684,7 +7684,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2567.280686761778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3062.606292977537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3639.612039348918</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>4267.210002903525</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.545841391669</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2124.944376414609</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1835.869149758807</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1581.18466155292</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.5916434387731</v>
+        <v>60.59164343877242</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079593</v>
+        <v>99.00790724000575</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.01218599085058</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.88658582607163</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941051</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.50521872719551</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>34.97276993489194</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>45.04089287986324</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>112.6104454096923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>46.6999868309277</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>212.9610556929595</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>68.52575990662487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>212.9610556929587</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.8678805421755</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>105.8542358274173</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>47.21554925516881</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>79.63321623493862</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>796974.7947420932</v>
+        <v>796974.7947420933</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.20504074</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>778378.2050407398</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>778378.20504074</v>
+        <v>778378.2050407397</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="J2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909288</v>
+        <v>679702.4124909325</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680948033</v>
+        <v>366.4703680911317</v>
       </c>
       <c r="D3" t="n">
         <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.129336565339465e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642096</v>
+        <v>68912.53318642154</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774284445</v>
+        <v>85.20559774198129</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756965</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674033</v>
+        <v>253116.5477674023</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557684</v>
+        <v>63021.4616455771</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339007.0060124825</v>
+        <v>-339007.0060124852</v>
       </c>
       <c r="C6" t="n">
-        <v>340402.3774117304</v>
+        <v>340402.3774117343</v>
       </c>
       <c r="D6" t="n">
-        <v>30020.32237793939</v>
+        <v>30020.3223779395</v>
       </c>
       <c r="E6" t="n">
-        <v>24722.38812173398</v>
+        <v>24375.00886737676</v>
       </c>
       <c r="F6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919229</v>
       </c>
       <c r="G6" t="n">
-        <v>532207.8297462799</v>
+        <v>531860.4504919227</v>
       </c>
       <c r="H6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919228</v>
       </c>
       <c r="I6" t="n">
-        <v>532207.8297462795</v>
+        <v>531860.4504919227</v>
       </c>
       <c r="J6" t="n">
-        <v>463295.296559859</v>
+        <v>462947.9173055012</v>
       </c>
       <c r="K6" t="n">
-        <v>532122.6241485372</v>
+        <v>531775.2448941808</v>
       </c>
       <c r="L6" t="n">
-        <v>436825.1836087104</v>
+        <v>436477.804354353</v>
       </c>
       <c r="M6" t="n">
-        <v>399600.5360173535</v>
+        <v>399253.1567629959</v>
       </c>
       <c r="N6" t="n">
-        <v>532207.8297462801</v>
+        <v>531860.4504919226</v>
       </c>
       <c r="O6" t="n">
-        <v>532207.8297462799</v>
+        <v>531860.4504919227</v>
       </c>
       <c r="P6" t="n">
-        <v>532207.8297462796</v>
+        <v>531860.4504919226</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960535</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651831</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,19 +26807,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960508</v>
+        <v>613.7700232960535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734275697</v>
+        <v>0.2849904734247275</v>
       </c>
       <c r="D3" t="n">
         <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363263671</v>
+        <v>0.3310652363230133</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651801</v>
+        <v>263.382814765183</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363263671</v>
+        <v>0.3310652363230133</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985324</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651799</v>
+        <v>263.3828147651831</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363263671</v>
+        <v>0.3310652363230133</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268983007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.5475553070787</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>180.2510022276453</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.82255116533833</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739396</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179689</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.7271662569803</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.4852405450068</v>
+        <v>99.48524054500675</v>
       </c>
       <c r="I3" t="n">
-        <v>7.595604892652212</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642711</v>
+        <v>16.54935796513965</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180233</v>
+        <v>122.1660284180231</v>
       </c>
       <c r="J4" t="n">
-        <v>15.1085330482566</v>
+        <v>15.10853304825626</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718864</v>
+        <v>127.5277104718862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>122.5806759188061</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586585345273</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357141111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>41.33506738749918</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442037</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776174</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>152.4884436845404</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3491187065198</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>32.1175097852784</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27706,16 +27706,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>181.0146768240159</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>57.97144148629883</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>208.4227681995649</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.3251789770805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>120.6010627874381</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>25.10862823871156</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>221.0295325966351</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079599</v>
+        <v>2.46741717907961</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524895</v>
+        <v>25.26943618524907</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646634</v>
+        <v>95.12510079646677</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029073</v>
+        <v>209.4189488029083</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933469</v>
+        <v>313.8647179933482</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876042</v>
+        <v>389.3769364876059</v>
       </c>
       <c r="M2" t="n">
-        <v>433.256866746061</v>
+        <v>433.2568667460629</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061209</v>
+        <v>440.2674158061229</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316482</v>
+        <v>415.73203623165</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231205</v>
+        <v>354.8176746231221</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973323</v>
+        <v>266.4532968973335</v>
       </c>
       <c r="R2" t="n">
-        <v>154.993894375359</v>
+        <v>154.9938943753597</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827643</v>
+        <v>56.22626896827668</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142095</v>
+        <v>10.801118701421</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263679</v>
+        <v>0.1973933743263688</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410373</v>
+        <v>1.320184578410379</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148966</v>
+        <v>12.75020369148972</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333962</v>
+        <v>45.45372342333982</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435871</v>
+        <v>124.7284912435877</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970821</v>
+        <v>213.1808579970831</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289717</v>
+        <v>286.6479717289729</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963476</v>
+        <v>334.5046626963491</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682313</v>
+        <v>343.3580057682328</v>
       </c>
       <c r="O3" t="n">
-        <v>314.105494846612</v>
+        <v>314.1054948466133</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439949</v>
+        <v>252.0973516439961</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774365</v>
+        <v>168.5204033774372</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621602</v>
+        <v>81.96724952621639</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564881</v>
+        <v>24.52184951564892</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311986</v>
+        <v>5.32127029631201</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857962987</v>
+        <v>0.08685424857963026</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.10679840266501</v>
+        <v>1.106798402665014</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058001</v>
+        <v>9.840443980058044</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923502</v>
+        <v>33.28444650923517</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841617</v>
+        <v>78.25064706841651</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823529</v>
+        <v>128.5898507823535</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653052</v>
+        <v>164.5507370653059</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195705</v>
+        <v>173.4956805195713</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187283</v>
+        <v>169.3703410187291</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148689</v>
+        <v>156.4409233148696</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005026</v>
+        <v>133.8622359005032</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770366</v>
+        <v>92.67927351770408</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528305</v>
+        <v>49.76568090528328</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735293</v>
+        <v>19.28847761735302</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477767</v>
+        <v>4.729047720477788</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354604</v>
+        <v>0.06037082196354631</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250724</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>595.3857163736981</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,28 +32314,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>351.5042614518788</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>266.6561007250657</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>724.9681211658376</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622104</v>
+        <v>28.37304427622198</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836631</v>
+        <v>93.77486694836767</v>
       </c>
       <c r="L2" t="n">
-        <v>153.610521517617</v>
+        <v>153.6105215176187</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187883</v>
+        <v>202.9106335187902</v>
       </c>
       <c r="N2" t="n">
-        <v>210.85435220953</v>
+        <v>210.854352209532</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099615</v>
+        <v>185.6338248099633</v>
       </c>
       <c r="P2" t="n">
-        <v>123.584678867851</v>
+        <v>123.5846788678525</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228828</v>
+        <v>44.14760702288399</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>96.89877181692671</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272312</v>
+        <v>75.33941902272406</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490975</v>
+        <v>148.0935919490988</v>
       </c>
       <c r="M3" t="n">
-        <v>263.3828147651799</v>
+        <v>192.3706287743308</v>
       </c>
       <c r="N3" t="n">
-        <v>212.016293684898</v>
+        <v>212.0162936848995</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021675</v>
+        <v>171.5092504021689</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296647</v>
+        <v>118.1229442296658</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.42521511748657</v>
+        <v>28.5386292914157</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.32035895647</v>
+        <v>105.4826193059232</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256213</v>
+        <v>192.140762325622</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814111</v>
+        <v>213.0795574814119</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979569</v>
+        <v>213.5025133979577</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289085</v>
+        <v>181.0260512289092</v>
       </c>
       <c r="P4" t="n">
-        <v>131.140795165396</v>
+        <v>131.1407951653966</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.67949061545333</v>
+        <v>6.51723026600969</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>280.048785629427</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417391</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>453.2516824516798</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>208.9080170074344</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>128.8146617507067</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>582.8340872438192</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2615663.189269881</v>
+        <v>2617423.719572667</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.3828147651831</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>226.6250435140662</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83532033605544</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739391</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>224.5107723990778</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.3828147651823</v>
       </c>
     </row>
     <row r="3">
@@ -743,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807526</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.641226661287096</v>
+        <v>18.19058462642685</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545278323952</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>153.9309184787655</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>82.14744450081317</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>82.14744450081001</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.1383913127194</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2792495146818396</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.4156738645889</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>17.28688718947226</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920594</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>290.9466399855158</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>31.10811072719287</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444122</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>44.7513807668935</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>19.51567534720864</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>97.75513637220187</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>207.0967504439648</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.623597659135302</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>112.7304175246775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4033,13 +4033,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988129</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>645.5089760794408</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="C2" t="n">
-        <v>645.5089760794408</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="D2" t="n">
-        <v>645.5089760794408</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="E2" t="n">
-        <v>379.4657288418821</v>
+        <v>40.9810959668377</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5515434741385</v>
+        <v>34.03559521763422</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5865734377188</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5865734377188</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467436</v>
+        <v>49.15993901467391</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935585</v>
+        <v>141.9970572935581</v>
       </c>
       <c r="L2" t="n">
-        <v>294.071473596001</v>
+        <v>294.0714735960001</v>
       </c>
       <c r="M2" t="n">
-        <v>494.953000779603</v>
+        <v>494.9530007796019</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670398</v>
+        <v>703.698809467038</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289033</v>
+        <v>887.4762960289011</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108077</v>
+        <v>1009.825128108075</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060733</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060733</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S2" t="n">
-        <v>899.19408671935</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T2" t="n">
-        <v>899.19408671935</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U2" t="n">
-        <v>645.5089760794408</v>
+        <v>799.8461484208201</v>
       </c>
       <c r="V2" t="n">
-        <v>645.5089760794408</v>
+        <v>573.0675904419536</v>
       </c>
       <c r="W2" t="n">
-        <v>645.5089760794408</v>
+        <v>573.0675904419536</v>
       </c>
       <c r="X2" t="n">
-        <v>645.5089760794408</v>
+        <v>573.0675904419536</v>
       </c>
       <c r="Y2" t="n">
-        <v>645.5089760794408</v>
+        <v>307.0243432043956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.9104316624177</v>
+        <v>503.6955191290483</v>
       </c>
       <c r="C3" t="n">
-        <v>65.45740238129068</v>
+        <v>329.2424898479213</v>
       </c>
       <c r="D3" t="n">
-        <v>65.45740238129068</v>
+        <v>180.3080801866701</v>
       </c>
       <c r="E3" t="n">
-        <v>65.45740238129068</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="F3" t="n">
-        <v>65.45740238129068</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129068</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129068</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799721</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124689</v>
+        <v>95.65665001371116</v>
       </c>
       <c r="L3" t="n">
-        <v>338.1990901420767</v>
+        <v>242.2693060433186</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286642</v>
+        <v>432.7162285299057</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767146</v>
+        <v>642.6123592779558</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748619</v>
+        <v>812.4065171761026</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062231</v>
+        <v>929.3482319634714</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060733</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R3" t="n">
-        <v>1051.873454352362</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="S3" t="n">
-        <v>1051.873454352362</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="T3" t="n">
-        <v>1051.873454352362</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="U3" t="n">
-        <v>823.7375676529725</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="V3" t="n">
-        <v>823.7375676529725</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="W3" t="n">
-        <v>823.7375676529725</v>
+        <v>1035.156931155248</v>
       </c>
       <c r="X3" t="n">
-        <v>615.8860674474397</v>
+        <v>879.6711549140703</v>
       </c>
       <c r="Y3" t="n">
-        <v>408.1257686824857</v>
+        <v>671.9108561491164</v>
       </c>
     </row>
     <row r="4">
@@ -4467,64 +4467,64 @@
         <v>340.1234475214573</v>
       </c>
       <c r="C4" t="n">
-        <v>171.1872645935504</v>
+        <v>171.1872645935503</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121465</v>
+        <v>21.07062518121459</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940786</v>
+        <v>126.3277805481203</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964444</v>
+        <v>316.547135250486</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030421</v>
+        <v>527.4958971570835</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670202</v>
+        <v>738.8633854210614</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836404</v>
+        <v>918.0791761376813</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097383</v>
+        <v>1047.07920109738</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060733</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060733</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="S4" t="n">
-        <v>970.5540423932445</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="T4" t="n">
-        <v>970.5540423932445</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="U4" t="n">
-        <v>970.5540423932445</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="V4" t="n">
-        <v>970.5540423932445</v>
+        <v>1053.531259060729</v>
       </c>
       <c r="W4" t="n">
         <v>970.5540423932445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>242.7587375310463</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.573449789174</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243022</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.3840804899464</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4679,19 +4679,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>826.7196740428381</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>572.4823173146365</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>364.6308171091036</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>156.8705183441497</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.394017794436</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1445.965582893149</v>
+        <v>1059.365742829029</v>
       </c>
       <c r="C8" t="n">
-        <v>1445.965582893149</v>
+        <v>690.403225888617</v>
       </c>
       <c r="D8" t="n">
-        <v>1445.965582893149</v>
+        <v>332.1375272818665</v>
       </c>
       <c r="E8" t="n">
-        <v>1060.177330294905</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F8" t="n">
-        <v>649.1914255052973</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4819,37 +4819,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.023786006625</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362669</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,19 +5044,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,13 +5129,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.9885622678</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,25 +5360,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232838</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5606,10 +5606,10 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,40 +5740,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>402.7245934908939</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1394.184733704551</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7675,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877242</v>
+        <v>60.59164343877262</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000575</v>
+        <v>2.109135423079195</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96.89877181692582</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266941051</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>134.1688236634916</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>136.2749052347511</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>267.0073229893824</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.86033664601048</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.04089287986324</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.9610556929595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>778378.2050407397</v>
+        <v>778378.2050407398</v>
       </c>
     </row>
     <row r="8">
@@ -26316,34 +26316,34 @@
         <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
@@ -26355,7 +26355,7 @@
         <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909325</v>
+        <v>679702.4124909316</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680911317</v>
+        <v>366.4703680921135</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642154</v>
+        <v>68912.53318642137</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774198129</v>
+        <v>85.2055977421861</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756965</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674023</v>
+        <v>253116.5477674025</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26447,7 +26447,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.4616455771</v>
+        <v>63021.46164557703</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339007.0060124852</v>
+        <v>-339007.0060124844</v>
       </c>
       <c r="C6" t="n">
-        <v>340402.3774117343</v>
+        <v>340402.3774117334</v>
       </c>
       <c r="D6" t="n">
-        <v>30020.3223779395</v>
+        <v>30020.3223779393</v>
       </c>
       <c r="E6" t="n">
-        <v>24375.00886737676</v>
+        <v>24687.65019629877</v>
       </c>
       <c r="F6" t="n">
-        <v>531860.4504919229</v>
+        <v>532173.0918208439</v>
       </c>
       <c r="G6" t="n">
-        <v>531860.4504919227</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="H6" t="n">
-        <v>531860.4504919228</v>
+        <v>532173.0918208443</v>
       </c>
       <c r="I6" t="n">
-        <v>531860.4504919227</v>
+        <v>532173.0918208441</v>
       </c>
       <c r="J6" t="n">
-        <v>462947.9173055012</v>
+        <v>463260.5586344224</v>
       </c>
       <c r="K6" t="n">
-        <v>531775.2448941808</v>
+        <v>532087.8862231018</v>
       </c>
       <c r="L6" t="n">
-        <v>436477.804354353</v>
+        <v>436790.445683274</v>
       </c>
       <c r="M6" t="n">
-        <v>399253.1567629959</v>
+        <v>399565.7980919174</v>
       </c>
       <c r="N6" t="n">
-        <v>531860.4504919226</v>
+        <v>532173.0918208439</v>
       </c>
       <c r="O6" t="n">
-        <v>531860.4504919227</v>
+        <v>532173.091820844</v>
       </c>
       <c r="P6" t="n">
-        <v>531860.4504919226</v>
+        <v>532173.0918208441</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960535</v>
+        <v>613.7700232960527</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651831</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.7700232960535</v>
+        <v>613.7700232960527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734247275</v>
+        <v>0.2849904734255233</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651831</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363230133</v>
+        <v>0.3310652363238091</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.382814765183</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363230133</v>
+        <v>0.3310652363238091</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985324</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651831</v>
+        <v>263.3828147651823</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363230133</v>
+        <v>0.3310652363238091</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.3510268982982</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.5475553070787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>180.2510022276453</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7938006179687</v>
       </c>
       <c r="T2" t="n">
         <v>212.2947308627104</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>103.2414860710571</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.8551238908713</v>
       </c>
     </row>
     <row r="3">
@@ -27463,10 +27463,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500675</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>16.54935796513965</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1613215881889</v>
@@ -27514,7 +27514,7 @@
         <v>194.8434583985096</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>51.84206672471197</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>152.3867285273815</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180231</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825626</v>
+        <v>15.10853304825636</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5277104718862</v>
+        <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>122.5806759188061</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>223.2165417078037</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>204.375553835781</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>210.0552413165486</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.4884436845404</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.1175097852784</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27751,10 +27751,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>208.4227681995649</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802024</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>120.6010627874381</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>221.0295325966351</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46741717907961</v>
+        <v>2.467417179079607</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524907</v>
+        <v>25.26943618524903</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646677</v>
+        <v>95.12510079646664</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029083</v>
+        <v>209.418948802908</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933482</v>
+        <v>313.8647179933478</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876059</v>
+        <v>389.3769364876054</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460629</v>
+        <v>433.2568667460624</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061229</v>
+        <v>440.2674158061224</v>
       </c>
       <c r="O2" t="n">
-        <v>415.73203623165</v>
+        <v>415.7320362316495</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231221</v>
+        <v>354.8176746231216</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973335</v>
+        <v>266.4532968973331</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753597</v>
+        <v>154.9938943753595</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827668</v>
+        <v>56.2262689682766</v>
       </c>
       <c r="T2" t="n">
-        <v>10.801118701421</v>
+        <v>10.80111870142099</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263688</v>
+        <v>0.1973933743263685</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410379</v>
+        <v>1.320184578410378</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148972</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333982</v>
+        <v>45.45372342333976</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435877</v>
+        <v>124.7284912435875</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970831</v>
+        <v>213.1808579970828</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289729</v>
+        <v>286.6479717289726</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963491</v>
+        <v>334.5046626963487</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682328</v>
+        <v>343.3580057682324</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466133</v>
+        <v>314.1054948466129</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439961</v>
+        <v>252.0973516439957</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774372</v>
+        <v>168.520403377437</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621639</v>
+        <v>81.96724952621628</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564892</v>
+        <v>24.52184951564888</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32127029631201</v>
+        <v>5.321270296312003</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963026</v>
+        <v>0.08685424857963014</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665014</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058044</v>
+        <v>9.840443980058032</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923517</v>
+        <v>33.28444650923513</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841651</v>
+        <v>78.25064706841641</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823535</v>
+        <v>128.5898507823533</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653059</v>
+        <v>164.5507370653057</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195713</v>
+        <v>173.4956805195711</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187291</v>
+        <v>169.3703410187289</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148696</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005032</v>
+        <v>133.862235900503</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770408</v>
+        <v>92.67927351770396</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528328</v>
+        <v>49.76568090528321</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735302</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477788</v>
+        <v>4.729047720477782</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354631</v>
+        <v>0.06037082196354623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>593.5422977113966</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>466.5925882502527</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32080,28 +32080,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622198</v>
+        <v>28.37304427622172</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836767</v>
+        <v>93.77486694836728</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176187</v>
+        <v>153.6105215176182</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187902</v>
+        <v>202.9106335187896</v>
       </c>
       <c r="N2" t="n">
-        <v>210.854352209532</v>
+        <v>210.8543522095314</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099633</v>
+        <v>185.6338248099628</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678525</v>
+        <v>123.5846788678521</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288399</v>
+        <v>44.14760702288365</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.89877181692671</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272406</v>
+        <v>75.3394190227238</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490988</v>
+        <v>148.0935919490984</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743308</v>
+        <v>192.3706287743304</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848995</v>
+        <v>212.0162936848991</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021689</v>
+        <v>171.5092504021685</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296658</v>
+        <v>118.1229442296655</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.5386292914157</v>
+        <v>125.4374011083413</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.4826193059232</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.140762325622</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814119</v>
+        <v>213.0795574814117</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979577</v>
+        <v>213.5025133979575</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289092</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653966</v>
+        <v>130.303055514847</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.51723026600969</v>
+        <v>6.517230266009577</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>462.2005856280633</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>332.6181808359224</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
